--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -114,7 +114,7 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>4711355</t>
+    <t>4688660</t>
   </si>
   <si>
     <t>LEFT</t>
@@ -129,7 +129,7 @@
     <t>Structure of left half of body</t>
   </si>
   <si>
-    <t>4711356</t>
+    <t>4688680</t>
   </si>
   <si>
     <t>RIGHT</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.5</t>
+    <t>0.3.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -72,7 +72,10 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>VA Digital Services (http://va.gov)</t>
+  </si>
+  <si>
+    <t>John Moehrke (himself) (John.Moehrke@va.gov)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -367,28 +370,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>7</v>
@@ -396,7 +399,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2"/>
     </row>
@@ -415,70 +418,70 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>28</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/VF-VitalsLaterality.xlsx
+++ b/docs/VF-VitalsLaterality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
